--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/35_Gümüşhane_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/35_Gümüşhane_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DD21245-8B00-4E59-A8C1-346C89DAD93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE2F637C-CF90-4E21-B6CB-A949BA6BF3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{29EACBD9-1557-4C37-8FA4-622143BD2224}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{CC1CAB9D-DD74-40CB-9AD9-46810B09BE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4DA54041-C6BB-457F-B1E8-829A2D9C6D02}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{59F535B5-CD4A-4C9E-9FF9-C5451DF959D8}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{56223720-B966-4CB0-A994-D289235F8226}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8190BCA5-FFD7-4ADD-A25B-874661D7BF74}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{FF8C5FDF-153C-4C72-BA6A-402AAC51AABA}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{44AD5FB6-89B3-40C7-A929-CF83D1D23955}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{72847575-E759-469A-BE07-87FBB564CDAB}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{104903EA-FF4E-4254-AED0-E29043BDE40E}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{124B2FBE-8E78-4D6A-8B30-7AC3E00CF949}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{7D66D7EF-0B1D-492D-A90F-034619A472D4}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{CB8E9368-1DBC-4F5F-943A-77295BE7D1D6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B7086B75-B1AE-4101-ADBA-0B9D07C1B2DB}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{66AEEF34-E942-4B94-9659-ACD19D050DA6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{CEFEDAE8-F307-4CCA-9FAA-03519E067E9E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCBDAEA-95E6-49F3-907A-2D4958929059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D80CB53-83A6-4BA4-B3F1-5FFB1DFE26D5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2581,18 +2581,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3450636-CC76-4FB7-BDA0-6BD834EF4259}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{348B384B-589F-45D1-8F5D-BDB96F0E4771}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{369B3842-01AB-457B-B567-27F647EA3984}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{90751F5F-7785-404A-ABD0-2F0CA8F69891}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E07EBB1-2116-4023-8715-23BECEFF8B93}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3A4FFEFF-512D-4E3D-8B98-6D24932ED494}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{630A0879-0FD2-4CC0-B592-03601BAF90C6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6079BD54-DF9C-4B4D-9A92-9B64D4FEAF8E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D6F951E-016C-4A15-8527-52867D8642F3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{967D36B2-7246-474B-A7FD-B58561E62A8D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9BBD2780-9EC3-41BC-AD8D-DAC11BCC2658}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2415B3E4-8519-4B56-B146-6770C289B398}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{471C8190-D5AE-403D-9DB4-8985153D3087}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8399E3C0-82EF-4A53-B9F3-957676C3627B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DE516ECF-03C8-40A9-9F19-1486A5D38086}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81824045-5FEA-49C1-8899-AD45A4EA8807}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{11C789BF-41E3-4733-9C74-D85EFE8577BC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{81388850-1F2A-4924-85FB-F4B751DF655F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{154C5A8D-D6A1-4274-BC8B-F6357B20E5F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{748E386D-6E40-4C12-ADD7-68DD7DE34761}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BB14D041-DBB9-4740-B6B7-6D37DD0FDA5E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A59A5172-66EF-403C-BEAE-B79916B3D79C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6FF515C-65E6-4C5C-BFED-CDDF9766C08F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7BA06E1F-E196-4DE9-8355-745358756C88}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2605,7 +2605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECADAF8-5FAB-4ED3-ACC9-74430E6A3EE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A7E63A-76D5-4838-AA3E-3BF891713348}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3834,18 +3834,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9A9234C9-0081-45B3-B7B0-A042FC044D60}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E93F8008-DEEA-4998-AC08-0F332C026C08}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{513FB231-FC70-404B-8493-86E87DB70958}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5C99637B-7DA2-4D3D-BC90-65093C2D9411}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC367C6F-2211-4C22-A935-86F32E7D45CC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{24AE3288-FC00-402A-B270-CFB939CA9264}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A170AD6-A53B-4F99-86CB-D7FD00D8E577}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B29A9F2-FD6D-4D06-98FB-930FFDB55B99}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65321196-1295-49AC-9AF5-6AFD39EACB2B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AD432A29-235A-49CF-B946-FF4BC6D8A053}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFBE7072-A03E-4A72-A6C7-67823FA6D812}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA845E5A-01DE-4B8B-94BE-AA6044059648}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA606B1A-B0E4-4054-BEB3-70057AA9FA34}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B6CCECF-D62F-4BB9-93BE-47E0BD4E1581}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AAED25B4-EBBB-4B1F-9E63-2148C63903F4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{21EF2C57-377D-4351-B037-EDDB5AE85EFC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A474B22-803B-4347-9268-4E798BBE8AAE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D3400F57-F776-47FF-BEF9-CC823F177DE6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDFD026C-E545-45C4-B5AE-036D6272E1FB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{687ECB6D-16F9-4F58-B4FE-38AF2658997B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{737790AB-B9C3-4A75-A385-3B7613CD280E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{62D90E65-43A0-4B66-9904-981DA6ED1F47}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90E07462-744E-4401-A2B2-7DBFBF87D7AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B009985-532E-4910-A478-31438091BB21}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3858,7 +3858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BA6BEA-B9F2-424D-B7C9-7DAFD90062AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688EE03D-44C9-408F-B54D-9DD76FE8F455}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5087,18 +5087,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55C95A8C-13D3-4108-9C72-99325A0B063E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA891177-3B35-499D-9E1F-F0274304BA46}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A4CDCC2F-FB05-4815-A6D1-78C41FC117F4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4CE73F4B-F32F-4331-8CCD-8ED496D7DA4D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3B5BCEFE-7369-4824-AD52-917236CA9D37}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CBC4C592-ACE3-4F51-8D7E-A91816817070}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F084CCBB-5D2F-48A7-998D-3DDD6151CCC4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA18F650-3992-4EB4-896A-CBAA31AADB9A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E83F18C7-F963-42B7-BF68-C771BF326C80}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9BABF60F-52C7-475B-BCE5-970157863AD4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0AB033B5-357E-4C45-8817-1FAA90E57E8C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A6C906B-084C-47C0-BECD-A43D9168FF77}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{890A937F-4496-449C-824F-E50E0E57C1B5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4FE79D25-3BAB-4786-AD6C-56CB2FCDCFC4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{71888A65-57B5-4B6B-B5D3-A2FDF95DD7FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE1A8A29-18F1-4EE1-A582-164227BC5629}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{575289A8-B445-4BF0-90DD-663E07F4698B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CC05407E-A037-4DC3-89DB-CCA0B6D97D98}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{46F1C430-3EB9-4AFC-AEB6-DBFDC13438B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{069AB193-0B5E-46BA-A8DD-AD9890E42378}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6C435CD-36E3-4AA0-ADEE-78516358ACCA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{450F3461-EBB8-42DF-82AC-1DDE44439488}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B5BEBF3-8671-46C1-8BC6-8A7511D628EC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0B4E0F1-F3D7-4543-97ED-88D7DE02DE94}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5111,7 +5111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7689B9E5-264A-4C7C-B435-8CEB89DEBD51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC353EC0-30DB-4228-8924-FF300BC778CC}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6295,18 +6295,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E428C8C-11D1-4CCF-8520-097E72D9F729}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0DB85166-606F-4E04-A03E-443158059194}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{627473D8-86E0-4CE4-98FB-D56D8D87FC2A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB2DD492-CF0E-4FB2-A05A-999D39606113}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A0A565A8-C311-422B-B1C7-7BE43D4C4F8F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7F0D6546-E264-4B59-A6EA-262D595F1C44}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AFFE1170-DE90-47B5-A436-D61DF18D7DBE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9D6379F-F933-4B47-91AA-56828E5FBF52}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D6726DCC-55BE-4E12-A156-1F94CFDECD16}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6C320271-8F01-426A-9C9A-8351CE4521B9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A201BDDF-7ECD-4F52-B088-E3A01A3D158C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0910F07-86C4-4C39-A759-3E5BB4C6076C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A36F46C4-1F27-4B26-93CB-DF32A39F31F6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BCC0058A-42F2-422C-853A-B38C235127BC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E158CD3F-B288-4046-829C-6ABE8D51B6C8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C8E9BF4E-F64B-421C-B2DE-94BFA98FF703}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C8507225-1E15-4760-BE6A-6A659B94137A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{45286E6C-11E5-4564-9A76-35F2173CA9EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8CA52D11-5DDA-42EC-B06B-583AC3CB8E67}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98CEFB0A-9AAF-4BAF-B9E4-C2A65A7AF150}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54A4C624-5E1E-4849-B056-F38B7C64EEA4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0719B03B-A988-4215-8F6D-45C4C90BFA74}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5CF36F5-3737-4EFF-B4DB-E45FAB3542AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A2D4E5C-A7EF-4CFF-88D0-445D765A323E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6319,7 +6319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611A054D-009C-477C-9D15-5C309BBB7A5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EF77C2-196A-455A-8A49-3F6D3AC6E718}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7572,18 +7572,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5E2240B-4851-47FB-9033-2FFC295A8588}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{97F57DF2-D1F7-49AD-B07A-436C26CB886F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1D990B72-94CD-4DFF-9256-0CA5DBD36C41}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C545596A-E7DC-4048-91E4-ADB401E6F9D0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE071AFA-39E1-4FA0-9461-9C34E6F658EA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8F8A0ACA-5D2C-47C4-AD1D-B040F9D81F1C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4CC93B2-237E-4AF3-8408-996E5A535435}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B79E8C3-822B-4C5D-BDC9-5E57C7834F2C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{581758B9-0B68-4313-8829-FF2A0B6DCCA0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{671B263D-7C1B-4017-87B5-E886076A4504}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9BF8D097-DC3F-4449-ACE5-9753EBE5B46F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD556529-FB35-403B-98B3-20C677A74412}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E45C8B2C-6011-4210-AFB0-3761843302D6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8B408CD-919B-4E21-8A76-C15EDB4A806D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{55BA92E1-2686-43DA-A204-8E4F8742F271}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C91348B8-3E07-4EF8-842D-24E792F386C6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{560407E4-79A3-4EE6-B3B9-D54896E5CA0C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7D43987F-F6D6-4312-8594-9E675206E035}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{279BC619-3D6A-4DCE-8809-466C0FA04993}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7B29A18-4B6D-4CCD-BCF1-D1799A17E056}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6BD47BBB-DBB0-46A4-B05E-A30A6131E0A0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{86DCD9EF-9495-44CE-83E9-56D2AE3CF15B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D85C55A-12C1-4372-8E63-35C4589E2FFD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7F6CC91-45E0-4D2A-A6C5-B8C95939EDAA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7596,7 +7596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F33713-542B-49C3-95B5-7F0C7DE4EAA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDA6A91-CB27-4A50-B943-728AB29F1A85}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8849,18 +8849,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADAABD09-EE44-4296-869B-23765FC1C017}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98FB8779-FA22-49B3-89D3-6B71427E08B1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{09053FF8-560B-4D80-9833-373C3D5EB582}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63586294-F994-4B58-8164-17F4259EC707}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{010EE316-218E-4E61-A6A1-F6A671B05DE3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C802A00B-C4E9-4B4C-BA1E-747317E53C30}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9056F435-F682-4DA9-B3DC-6FC676FFFE7F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46EFF2D6-7742-474A-BE7C-F4061E8A85D4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{650BCFC3-3004-4F43-A8AF-6F46C8BE17B7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FFAF771F-3857-456B-89F6-7D5B4FF394F7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A341681-1CCF-4084-A065-8196486995D2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{528AA45B-F0F4-45BD-910C-5F8958B8758D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BCD8F85D-FEB6-4015-A6A5-F366E8D79D24}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF44A993-8B26-47BB-911E-D5464D9B7BCA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7C4265C9-3A86-4DFF-84C3-C8CF836B29F1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C0DDE67E-8E31-49F5-8F17-0DF65F7C3D67}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F920E209-7F65-4D9F-BACA-092E64451E64}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F4CBE9F0-052C-486B-ADA5-F62A526046EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8332F5BA-3830-460E-910C-0A4E17B42476}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB3FAD6A-3463-4B07-A8E8-9E41BE827113}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{474391CC-07C5-4DAA-A082-D9CBB7D1B32E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D34EAF85-F46C-4284-91F3-945BAE7FC2D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1EF4B038-0F6F-4BF4-B8CC-056E2E3A2CCF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB9038A1-4B42-46CB-A36F-EEE2C432AD27}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8873,7 +8873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C67A58E-3FB3-4874-BCF9-9D12D8F9572F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7043CFA3-B912-40D2-B277-95E91787AE2B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10122,18 +10122,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F0286AA-C097-440D-A41E-EEDED32D68D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6BAE6932-D408-4D08-882D-54BF6351C84F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B2841EB-77F1-4C51-B0F5-3E7A26A36C4D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A2324E9-65F9-46A0-BEE7-A15033F93E9C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F032715-2DE5-46DF-B7D1-B65FF074678D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8EBC536A-8E1A-403C-96E7-E274FD4A9EA0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F46E513-3731-49DD-9B44-F42710DFD1B0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B384864-1A12-42B3-9538-86D0E8AC0AB2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{202D8078-4125-4EF2-B21B-DF376ED60A5E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D22AFA8E-4AA7-4495-952A-2DABF8F9AA26}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{52BBF56A-B729-46E5-A3D7-4C5EE166E830}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{521E8D5E-231E-4CE2-A872-B01208BFF8D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF523995-F200-43F1-80B4-00E05DAEBD82}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D08814A-A7F4-41CF-BB75-4712A536B71E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{607768B0-F220-407B-836C-01622B113825}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F171B1FA-8200-402C-9CFB-2A24A904BB64}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C849D12A-1AE8-427B-9DEE-94D2807872FC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5E9B9E61-56E8-47DA-B706-0A8CF6FCF2A1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ACE620A2-ED67-4270-8C72-77FDAFCC4EF9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49A5D33A-24A2-411F-B265-DFEFB98E9184}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B88EF6C3-1214-4CBA-B502-C78DD450CDF1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{41868109-66FC-4FB8-BA48-41FEB82CAB75}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5726AF8-B7CC-47E8-9094-503D7183D7BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9FCE2380-26A5-451C-963D-5330D63D1BA4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10146,7 +10146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58405C0-5990-463C-88F3-FA5414BB3621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F614BA27-BD15-4054-8EF9-DA9CA7CABAB0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11395,18 +11395,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A08DE1F-0582-4B1C-946D-E1970E6C74D8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5712CA0-6605-4192-96DE-E1B6B297BF64}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AFED4FCB-A84B-472C-9383-4178B7817147}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC318BB5-D277-4226-B264-C4A69C6DD2F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F65E7898-DD0F-4849-9187-38D5C969095F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C5FE2B54-B7D0-42FE-B438-41EFC8C11087}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82E46286-2979-4BA5-AF09-E15C1066B1AD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{623C0E81-699B-439B-9BF9-1D170F2A7ACB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7821382-73C6-4E45-8F3E-5C49915C05B3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EEFE2BAE-AA85-4E1E-AAC3-313BCE0234C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7673E98A-DE5E-488E-80B4-8B73757195A5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{91A40583-678B-43E6-8913-CA5543521A8B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D2CDDD7-2AA0-43E7-99DB-69CFC3A44F6E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8D66C29-8C70-4CDA-8943-6001800A7541}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A07F43CB-5A36-466A-9F21-440E445B4392}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C251D185-F6FC-45B8-AE46-4A5C44669932}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5BED3664-33E5-4602-A580-6E0898D3C533}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FCA06484-3A7F-462E-A296-6D47143CDC90}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B71E31D1-C4CD-414A-A98F-C9E35606A95B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{983A4FF0-FEAF-4E73-A5A0-86850953E3E7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D00FAAA1-B1F6-492B-9BE0-31D3D8AD6653}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{31DE9F4A-54F8-47EC-988F-40EBEAB9CA8E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1DC0566-FBFF-4EB8-B718-16F7DE52893A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86F544F0-9E84-43CF-BB36-584DE31261C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11419,7 +11419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7A493E-A68E-447B-96FF-8124E1AD5C1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6323A1-3476-46B1-A2D0-43C5A1E76A40}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12660,18 +12660,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{25C18457-5188-48AF-B357-66FA320707AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95ECD995-7582-49F0-BBB2-ACFFC54C519B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8DD890EB-4431-4A0E-A422-3298F1AC2FE9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{45BBA445-E3CA-4159-9329-79669535756A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{194A1D93-8C7C-44E6-A932-6CA16E5D8314}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A38BD27E-D654-4D98-804E-D0D102F2F8C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F719D40-22B9-41F4-96C4-ED7975178C61}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4D1CE29-D3B0-4682-97C5-BD32D48FAF6D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{98DD4B6D-22F1-4123-B6BB-A9DA3F88E000}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CA126323-FE70-41B8-BF6D-D4CEA974BF5A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A078CA06-4BD7-4CA1-9E2B-56A4D191228C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7999DE2C-D33F-43B2-AEE2-5CF9AFB91ED2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89CC77DB-8C0D-4D22-8C59-9B58F8E6CD24}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF5E0AAF-D0AF-4F2C-8D6F-082C74FC7E3B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{724F8970-FFA4-4D31-987D-F2FE61370417}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{14EFBDDD-68B3-4D51-B9F9-E0C45B526342}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{97014DCB-BACA-4487-9400-642706B81785}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8A1315CA-30E6-447E-834D-F2183B1E45EA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A9F8AF77-91E9-45EC-8301-F1E2D16B53A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13FCAF90-3125-4DCE-94FF-846D6E1F1D44}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{83EBA688-B275-4E20-9C23-3968C1E47F7E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8CEB1E08-2953-407F-86F6-87FD2C1178E4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2EE9F0D8-EE13-4270-A8F7-B41CBB654165}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{428B3E81-0492-4054-86D8-378D81D25F27}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12684,7 +12684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE57C83-BE31-48BB-A0A2-899B7C904A1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C30FF3-F9AF-489F-A64A-A7B2E1AF0F3F}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13913,18 +13913,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5183BD75-5225-48F4-A8A5-F3B5E2D63378}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32B7B53F-00E4-4466-A3F7-BA07759F7D0A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{31631621-A318-4C51-BACD-897969E4EB03}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F9D05F1A-E80A-4311-AADA-E75447656667}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92F9CA63-3418-40F5-A667-F75F692C1AB9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8EA04985-7BD3-4E5B-B09F-C045C7D10C27}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51829FB4-A01D-46E2-929E-DEA7B2552161}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D3C5307-4712-4BA7-B3B8-672AEE252A52}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69639600-7F03-4F63-B1CD-9DB92B6B841D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{84BE0EB9-02CF-4B7B-9382-B970C1FFC80F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF1AD0A7-AE4D-4E67-B6A8-E45A3EEB1DA8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B1B8B36-93B0-49F5-AA9E-59679334618F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB5F8266-AD30-479C-A55D-70A280069B51}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD06207A-FDDA-40C8-9745-21F681B659F6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B08B090E-81A3-470B-96F3-195200C078E7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6440924A-2C73-4C47-AD4C-9DC8F4B7EB19}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2910B92E-758E-47B7-AA69-7556629EF6B3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E61BE2AF-67CF-406B-8819-FDE1E3659320}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9250E50-44A7-4DCC-BFBD-8A316C232E4B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88250EED-1109-49B4-9219-B98F9DFAB2D9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5EA0614C-3CCF-44FB-80B3-C1377922EB85}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EC0EBDE3-787B-42AA-8113-4F8DDEE1DA31}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D98E9E23-999F-48C4-92F0-66EB521F9AAC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EE84EEFF-C383-441A-9612-4FF86B4E1596}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13937,7 +13937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB742787-2F14-4EB9-ADEA-93BDAC2B9ECB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6452858D-114D-4AB7-8CB2-7772C1264CB0}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15166,18 +15166,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{528E35BA-2E51-4A53-A1AC-E9EB7E283A77}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7D47789F-CE28-417D-A311-29AE2066E927}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3D959D31-103F-4F99-AA84-AE34F8214227}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{600FDC55-9F18-454D-9E43-5E6605545714}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4812930C-9DAD-4C41-8598-4FBFBB593280}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E2524006-6F14-4607-BB50-E7A919D20160}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6000D98-247A-45CF-B3E5-F080C8E0A377}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B43BE5CA-7B9A-4B9D-AE41-709B68956F7E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D80EFA9-A2A4-4261-BE02-6D8C91C3390D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DB59DEAA-E1B1-4447-92DB-E2646E6ACF58}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{838F9521-EA22-404A-9258-10A12296DCEE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A6BE35D3-E9C7-4FC9-BD6C-0F7789A7C55C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47E2CA0C-FBC1-47FE-92CB-C177CDFDB5E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{498370F4-37C4-4875-80A3-274730DE21EB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6E068D48-B48E-4D2D-907B-6734ECD86E76}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{72666081-56AC-48DD-8123-7448656B565F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1EDFCDA3-30C5-4867-A324-806446430216}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{98E44FF9-D8A6-432B-9972-E5CAEA973443}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A44AEF3A-89D5-4BF4-9D03-6981A3FFBB14}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92240255-E0A3-479E-91ED-9E86C547DFEB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D85F2667-0CBD-4F1E-A21E-61C3CE3963A7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ACA8D0AC-1335-42E2-BBC1-6DD66AD103A0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{897DF67C-2FC4-4630-9D9C-E5D54797EFDC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{05FED795-DEE9-4C72-B424-B2E0C47B45B5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15190,7 +15190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555B5D94-5E0F-4D2D-A161-19514B3F88CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936DA2BF-4435-44A7-A3BD-86C6F1996005}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16419,18 +16419,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3A0561E-EF2D-413C-932B-4F6775180A27}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49A99F01-855F-40EE-8ABE-7624844EB0FC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6321D485-1657-4E09-BB02-7445F4B897F5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A0CA242F-5902-4442-BB27-D0D01F2412E8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DFBE1602-9463-48CB-8E87-4A376A76C505}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{368B6EAA-2F4D-4103-9C35-D3F578D04ECA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{414A839D-2053-47DC-99DC-024FF855ED62}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29EC1136-B3B5-43EB-926E-618DA4A2FFF8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{26FAFCA7-23CC-4DE6-A356-8A2A71DC6AAF}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CCE6D79A-6650-41E9-AE8D-0301D8EDE387}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{66402416-F912-4252-8135-4BE143EF21C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD8C621B-F3D6-4ED7-99DF-128F246915A3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5CA8E439-4935-461E-A1E2-8C171236B148}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA139596-2470-4A8F-B029-F62F5E73635C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{99BDEC19-4E1E-4D7F-8634-B4CE29A39ABF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CCC73190-8099-427D-BB8E-5E423AADAB4D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A51750A-164B-400A-A24F-02AE5238E2E1}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{190A1C08-57EA-4EFE-A1CE-B0EB6B4BEB9A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9B090F4-F74F-489F-9CD1-411461C60283}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B402B37-A2E2-4A41-A200-898ADA286E94}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DF1C6A6C-B9E8-43DF-9C6F-A255947C3135}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8DF8D6DA-CC82-4FCC-B426-DAAA06E47665}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0578532C-32B7-4863-89CF-66F1BBB3D10E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{888E57B4-43DD-4972-BDE6-850C7432413F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
